--- a/classes/StandardFeatures.xlsx
+++ b/classes/StandardFeatures.xlsx
@@ -11,30 +11,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Cleric</t>
   </si>
   <si>
+    <t>Rogue</t>
+  </si>
+  <si>
     <t>1/2=2/2=3/2=4/2=5/3=6/3=7/3=8/3=9/4=10/4=11/4=12/4=13/5=14/5=15/5=16/5=17/6=18/6=19/6=20/6</t>
   </si>
   <si>
     <t>LA=MA=S</t>
   </si>
   <si>
+    <t>LA</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
+    <t>S=HC=LS=R=SS</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
+    <t>Thieves' Tools</t>
+  </si>
+  <si>
     <t>Wisdom=Charisma</t>
   </si>
   <si>
+    <t>Dexterity=Intelligence</t>
+  </si>
+  <si>
     <t>true=Wisdom</t>
   </si>
   <si>
+    <t>false=None</t>
+  </si>
+  <si>
     <t>2/Channel Divinity=5/Destroy Undead=10/Divine Intervention</t>
+  </si>
+  <si>
+    <t>1/Thieves' Cant=1/Sneak Attack=2/Cunning Action=5/Uncanny Dodge=7/Evasion=11/Reliable Talent=14/Blindsense=15/Slippery Mind=18/Elusive=20/Stroke of Luck</t>
   </si>
 </sst>
 </file>
@@ -295,45 +316,72 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>8.0</v>
       </c>
+      <c r="B3" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/classes/StandardFeatures.xlsx
+++ b/classes/StandardFeatures.xlsx
@@ -28,10 +28,10 @@
     <t>LA</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S=HC=LS=R=SS</t>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SW=HC=LS=R=SS</t>
   </si>
   <si>
     <t>None</t>
@@ -46,7 +46,7 @@
     <t>Dexterity=Intelligence</t>
   </si>
   <si>
-    <t>true=Wisdom</t>
+    <t>true=Wisdom=classes/cleric/SpellSlotsCleric.xlsx=classes/cleric/SpellListCleric.xlsx=P</t>
   </si>
   <si>
     <t>false=None</t>

--- a/classes/StandardFeatures.xlsx
+++ b/classes/StandardFeatures.xlsx
@@ -31,7 +31,7 @@
     <t>SW</t>
   </si>
   <si>
-    <t>SW=HC=LS=R=SS</t>
+    <t>SW=Crossbow, Hand=Long-sword=Rapier=Short-sword</t>
   </si>
   <si>
     <t>None</t>

--- a/classes/StandardFeatures.xlsx
+++ b/classes/StandardFeatures.xlsx
@@ -22,16 +22,16 @@
     <t>1/2=2/2=3/2=4/2=5/3=6/3=7/3=8/3=9/4=10/4=11/4=12/4=13/5=14/5=15/5=16/5=17/6=18/6=19/6=20/6</t>
   </si>
   <si>
-    <t>LA=MA=S</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>SW=Crossbow, Hand=Long-sword=Rapier=Short-sword</t>
+    <t>Light Armor=Medium Armor=Shield</t>
+  </si>
+  <si>
+    <t>Light Armor</t>
+  </si>
+  <si>
+    <t>Simple Weapons</t>
+  </si>
+  <si>
+    <t>Simple Weapons=Crossbow, Hand=Long-sword=Rapier=Short-sword</t>
   </si>
   <si>
     <t>None</t>

--- a/classes/StandardFeatures.xlsx
+++ b/classes/StandardFeatures.xlsx
@@ -37,7 +37,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>Thieves' Tools</t>
+    <t>Thieves’ Tools</t>
   </si>
   <si>
     <t>Wisdom=Charisma</t>

--- a/classes/StandardFeatures.xlsx
+++ b/classes/StandardFeatures.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Cleric</t>
   </si>
@@ -52,10 +52,16 @@
     <t>false=None</t>
   </si>
   <si>
-    <t>2/Channel Divinity=5/Destroy Undead=10/Divine Intervention</t>
-  </si>
-  <si>
-    <t>1/Thieves' Cant=1/Sneak Attack=2/Cunning Action=5/Uncanny Dodge=7/Evasion=11/Reliable Talent=14/Blindsense=15/Slippery Mind=18/Elusive=20/Stroke of Luck</t>
+    <t>10/Divine Intervention</t>
+  </si>
+  <si>
+    <t>1/Thieves' Cant=1/Expertise=2/Cunning Action=5/Uncanny Dodge=7/Evasion=11/Reliable Talent=14/Blindsense=15/Slippery Mind=18/Elusive=20/Stroke of Luck</t>
+  </si>
+  <si>
+    <t>2/Channel Divinity=5/Destroy Undead</t>
+  </si>
+  <si>
+    <t>1/Sneak Attack</t>
   </si>
 </sst>
 </file>
@@ -384,6 +390,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
